--- a/기능명세및일정.xlsx
+++ b/기능명세및일정.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6936"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6936" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
   <si>
     <t>프로젝트 기능명세 및 일정계획</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,12 +414,96 @@
   <si>
     <t>스티커</t>
   </si>
+  <si>
+    <t>SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기기사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변사용자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broadcast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content(text)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,8 +596,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,6 +680,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -894,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,254 +1029,266 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1453,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A16" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1477,14 +1596,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1501,142 +1620,142 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="104.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="86" t="s">
+      <c r="G5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="85" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="88"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="34" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="35">
+      <c r="A7" s="33">
         <v>1</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="40"/>
-      <c r="L7" s="14" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="38"/>
+      <c r="L7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="43"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="89">
+      <c r="A9" s="87">
         <v>2</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="45" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="48"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="17"/>
+      <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="8"/>
@@ -1644,889 +1763,889 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="89">
+      <c r="A10" s="87">
         <v>3</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="45" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
     </row>
     <row r="11" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="35">
+      <c r="A11" s="33">
         <v>4</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="47">
         <v>1</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
     </row>
     <row r="12" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="35">
+      <c r="A13" s="33">
         <v>5</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="47">
         <v>1</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
     </row>
     <row r="14" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="89">
+      <c r="A15" s="87">
         <v>6</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="53">
         <v>1</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:18" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="35">
+      <c r="A16" s="33">
         <v>7</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E16" s="47">
         <v>1</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="52"/>
     </row>
     <row r="18" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35">
+      <c r="A18" s="33">
         <v>8</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="47">
         <v>2</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="89">
+      <c r="A20" s="87">
         <v>9</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="53">
         <v>3</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35">
+      <c r="A21" s="33">
         <v>10</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="47">
         <v>3</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="29"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="54"/>
-      <c r="L22" s="18"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="52"/>
+      <c r="L22" s="16"/>
     </row>
     <row r="23" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="89">
+      <c r="A23" s="87">
         <v>11</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="53">
         <v>4</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="L23" s="19"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="L23" s="17"/>
     </row>
     <row r="24" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="35">
+      <c r="A24" s="33">
         <v>12</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="49">
+      <c r="E24" s="47">
         <v>5</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="L24" s="19"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="49"/>
+      <c r="L24" s="17"/>
     </row>
     <row r="25" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="29"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="52"/>
-      <c r="J25" s="54"/>
-      <c r="L25" s="19"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="52"/>
+      <c r="L25" s="17"/>
     </row>
     <row r="26" spans="1:12" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="89">
+      <c r="A26" s="87">
         <v>13</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="60" t="s">
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="63"/>
-      <c r="L26" s="19"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="61"/>
+      <c r="L26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="89">
+      <c r="A27" s="87">
         <v>14</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="60" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="60" t="s">
+      <c r="H27" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="63"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="61"/>
     </row>
     <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="35">
+      <c r="A28" s="33">
         <v>15</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66" t="s">
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="H28" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="65"/>
-      <c r="J28" s="67"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:12" s="5" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="70" t="s">
+      <c r="G29" s="66"/>
+      <c r="H29" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="71"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="64" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66" t="s">
+      <c r="E30" s="63"/>
+      <c r="F30" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="64" t="s">
+      <c r="G30" s="63"/>
+      <c r="H30" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="65"/>
-      <c r="J30" s="67"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="28"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="73" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="74"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="29"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="71"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="69"/>
     </row>
     <row r="33" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="89">
+      <c r="A33" s="87">
         <v>17</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="76"/>
-      <c r="F33" s="75" t="s">
+      <c r="E33" s="74"/>
+      <c r="F33" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="77"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="75"/>
     </row>
     <row r="34" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="25"/>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="65"/>
-      <c r="F34" s="64" t="s">
+      <c r="E34" s="63"/>
+      <c r="F34" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="67"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="29"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="70" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="71"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="69"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="44"/>
-      <c r="B36" s="75" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="75" t="s">
+      <c r="E36" s="74"/>
+      <c r="F36" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="75"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="25"/>
-      <c r="B37" s="64" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="64" t="s">
+      <c r="E37" s="63"/>
+      <c r="F37" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="65"/>
-      <c r="H37" s="64" t="s">
+      <c r="G37" s="63"/>
+      <c r="H37" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="I37" s="65"/>
-      <c r="J37" s="67"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="29"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="70" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="71"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="69"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="44"/>
-      <c r="B39" s="75" t="s">
+      <c r="A39" s="42"/>
+      <c r="B39" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="75" t="s">
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="75"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="89">
+      <c r="A40" s="87">
         <v>18</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="76"/>
-      <c r="F40" s="75" t="s">
+      <c r="E40" s="74"/>
+      <c r="F40" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="77"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="25"/>
-      <c r="B41" s="64" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="64" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="64" t="s">
+      <c r="G41" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="65"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="67"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="28"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="78" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="74"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="72"/>
     </row>
     <row r="43" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="28"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="73" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="74"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="72"/>
     </row>
     <row r="44" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="28"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="73" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="74"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="72"/>
     </row>
     <row r="45" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="28"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="78" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="74"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="72"/>
     </row>
     <row r="46" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="28"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="73" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="74"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="72"/>
     </row>
     <row r="47" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="29"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="69" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="71"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="69"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="44"/>
-      <c r="B48" s="79" t="s">
+      <c r="A48" s="42"/>
+      <c r="B48" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="81"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="79"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="35">
+      <c r="A49" s="33">
         <v>19</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="36" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G49" s="36" t="s">
+      <c r="G49" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="27"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="82" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="31"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="35">
+      <c r="A51" s="33">
         <v>20</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="36" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="27"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
     </row>
     <row r="52" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="82" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="31"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="29"/>
     </row>
     <row r="53" spans="1:10" ht="27.6" x14ac:dyDescent="0.4">
-      <c r="A53" s="90">
+      <c r="A53" s="88">
         <v>21</v>
       </c>
-      <c r="B53" s="91" t="s">
+      <c r="B53" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="91" t="s">
+      <c r="C53" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="91" t="s">
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="91" t="s">
+      <c r="G53" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="84"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2537,4 +2656,157 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="93"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="H8" s="92"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/기능명세및일정.xlsx
+++ b/기능명세및일정.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="144">
   <si>
     <t>프로젝트 기능명세 및 일정계획</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +496,22 @@
   </si>
   <si>
     <t>content(text)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 삭제 위험 &gt; 서버에저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주기적으로 + 이외 다른 event발생시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1272,23 +1288,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1596,14 +1612,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1620,14 +1636,14 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:18" ht="104.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2660,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B6" sqref="B6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2671,7 +2687,12 @@
     <col min="5" max="5" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>132</v>
       </c>
@@ -2697,112 +2718,133 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="93" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="93" t="s">
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="93" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="M4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="93"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="92"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="91"/>
+      <c r="M5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>122</v>
       </c>
       <c r="C6" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="J6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>123</v>
       </c>
       <c r="C7" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="H8" s="92"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="M8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>125</v>
       </c>
       <c r="C9" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>126</v>
       </c>
       <c r="C10" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="D10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>127</v>
       </c>
       <c r="C11" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="M11" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
